--- a/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,28%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>39,06; 69,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>20,91; 65,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>37,7; 63,47</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>48,05; 59,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>29,76; 48,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>44,83; 55,08</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,63%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>62,63; 71,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>45,28; 58,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>58,96; 66,04</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,1%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>58,92; 69,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>47,46; 61,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>56,74; 64,8</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,08%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>63,2; 71,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>43,71; 54,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>56,81; 63,29</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,29%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>62,19; 66,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>46,32; 52,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>57,42; 61,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>50,17%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,06; 69,96</t>
+          <t>49,17; 60,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,91; 65,4</t>
+          <t>30,8; 48,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,7; 63,47</t>
+          <t>45,26; 54,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>67,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>62,63%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,05; 59,92</t>
+          <t>62,63; 71,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 48,26</t>
+          <t>45,28; 58,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,83; 55,08</t>
+          <t>58,96; 66,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>61,1%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,63; 71,44</t>
+          <t>58,92; 69,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,28; 58,32</t>
+          <t>47,46; 61,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,96; 66,04</t>
+          <t>56,74; 64,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>49,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,1%</t>
+          <t>60,08%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,92; 69,63</t>
+          <t>63,2; 71,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,46; 61,3</t>
+          <t>43,71; 54,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,74; 64,8</t>
+          <t>56,81; 63,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,29%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63,2; 71,56</t>
+          <t>62,19; 66,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,71; 54,96</t>
+          <t>46,32; 52,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,81; 63,29</t>
+          <t>57,42; 61,29</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>64,4%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>49,61%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>59,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>62,19; 66,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>46,32; 52,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>57,42; 61,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,17; 60,09</t>
+          <t>49,19; 59,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,8; 48,11</t>
+          <t>31,22; 47,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,26; 54,7</t>
+          <t>45,41; 55,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,63; 71,44</t>
+          <t>62,29; 71,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,28; 58,32</t>
+          <t>45,54; 58,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,96; 66,04</t>
+          <t>59,14; 66,24</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,92; 69,63</t>
+          <t>59,54; 69,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,46; 61,3</t>
+          <t>46,84; 61,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,74; 64,8</t>
+          <t>57,19; 65,14</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,2; 71,56</t>
+          <t>63,59; 71,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,71; 54,96</t>
+          <t>43,76; 54,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,81; 63,29</t>
+          <t>56,91; 63,48</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>62,19; 66,83</t>
+          <t>62,3; 66,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,32; 52,96</t>
+          <t>45,76; 53,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,42; 61,29</t>
+          <t>57,36; 61,33</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado algún reconocimiento médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>185720</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50205</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>235925</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>167845; 202992</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40281; 60986</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>213503; 259097</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>349614</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>128184</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>477796</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>321897; 370586</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>112031; 144750</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>451118; 505287</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>243524</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>109478</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>353002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>224089; 262176</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94315; 123361</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>330413; 376352</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>346790</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>170806</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>517596</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>326474; 368941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>152297; 189503</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>490260; 546879</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1125648</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>458672</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1584320</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1088826; 1165205</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>423044; 491797</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1532942; 1638806</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>